--- a/manual_tests/User_profiles_roles.xlsx
+++ b/manual_tests/User_profiles_roles.xlsx
@@ -808,6 +808,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -1125,8 +1129,8 @@
   </sheetPr>
   <dimension ref="A1:AD996"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I17:I18"/>
+    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2"/>
@@ -1518,7 +1522,7 @@
       <c r="AC10" s="29"/>
       <c r="AD10" s="29"/>
     </row>
-    <row r="11" spans="1:30" ht="69">
+    <row r="11" spans="1:30" ht="55.2">
       <c r="A11" s="14"/>
       <c r="B11" s="43" t="s">
         <v>47</v>
@@ -1573,7 +1577,7 @@
       <c r="AB11" s="13"/>
       <c r="AC11" s="13"/>
     </row>
-    <row r="12" spans="1:30" ht="69">
+    <row r="12" spans="1:30" ht="55.2">
       <c r="A12" s="14"/>
       <c r="B12" s="43" t="s">
         <v>53</v>
@@ -1683,7 +1687,7 @@
       <c r="AB13" s="13"/>
       <c r="AC13" s="13"/>
     </row>
-    <row r="14" spans="1:30" ht="69">
+    <row r="14" spans="1:30" ht="55.2">
       <c r="A14" s="14"/>
       <c r="B14" s="43" t="s">
         <v>63</v>
